--- a/QA/testcases/LLS/Pharmacy/007_L_Prov_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Pharmacy/007_L_Prov_Patient_App_Create_PCase_Positive.xlsx
@@ -55,7 +55,7 @@
     <t>Reference Step</t>
   </si>
   <si>
-    <t>LLSProviderLogin</t>
+    <t>LLSPharmacyLogin</t>
   </si>
   <si>
     <t>Launch URL and login as Pharmacy</t>
@@ -546,10 +546,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -581,21 +581,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -604,14 +589,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,9 +610,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,37 +672,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -680,9 +680,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,22 +696,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,13 +758,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,37 +824,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,132 +938,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -994,6 +994,17 @@
       <left/>
       <right/>
       <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
@@ -1013,6 +1024,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1028,6 +1048,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1039,41 +1074,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,6 +1104,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1113,15 +1124,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,130 +1142,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1267,16 +1278,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1677,7 +1688,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="$A34:$XFD35"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
